--- a/src/pandorafits/fileformats/visda-headers-level2.xlsx
+++ b/src/pandorafits/fileformats/visda-headers-level2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chedges/Pandora/repos/pandora-fits/src/pandorafits/fileformats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17479753-C7E6-4C4D-A1B7-0B3C32EBBDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE50B32E-EF12-9443-AC72-D87E79795F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17060" activeTab="4" xr2:uid="{B6A127EC-86E5-1348-8EA3-CDC4E3346098}"/>
   </bookViews>
@@ -1791,7 +1791,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
